--- a/rfm.xlsx
+++ b/rfm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c.chrysanthakopoulos\Desktop\powerBI\Dashboards\rfm__V06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF1657A-B0F9-4FC0-A463-D0B724E2046A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F92176-E719-41B3-A519-57A2FD9F2DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19E9A41E-4ECC-4978-B549-802D52ECBB21}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId2"/>
+    <pivotCache cacheId="4" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Charalampos Chrysanthakopoulos" refreshedDate="45757.594735995372" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="49" xr:uid="{6DFF7F79-96F2-4314-9BA2-9BD2FBFBA6B8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Charalampos Chrysanthakopoulos" refreshedDate="45757.647107175922" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="49" xr:uid="{6DFF7F79-96F2-4314-9BA2-9BD2FBFBA6B8}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8310FB26-20DD-4AA0-951A-9EAC5848E777}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8310FB26-20DD-4AA0-951A-9EAC5848E777}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="G2:H31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AFFE2E-62EA-4AFA-B720-2C7FA0CD7928}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
